--- a/react-vn-website/public/data/events.xlsx
+++ b/react-vn-website/public/data/events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshi\Desktop\VN-Website\react-vn-website\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshi\Desktop\Vishwa Netrutvam\react-vn-website\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741F88C-3A44-41FE-9313-C9DFFE5FF028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F0835A-D665-48C6-B035-6809D4F6CF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
+    <workbookView xWindow="9060" yWindow="612" windowWidth="10140" windowHeight="10572" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-22" sheetId="4" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>https://drive.google.com/file/d/1wo8kvsMQUm5Jx1HDTcEvBXRO1GJv9ser/view?usp=drive_link</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1YdWD8Q_O_Ml_2X7vdiIBvUPnGUQzF1HI/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>SYDA Student Induction Program</t>
   </si>
   <si>
@@ -202,39 +199,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1v4MkOTMg_IJwx9Q1cwQJGfGWat05MNlU/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E1/image1.JPG, /images/Events/2024-25/E1/image2.JPG, /images/Events/2024-25/E1/image3.JPG</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E2/image1.jpg, /images/Events/2024-25/E2/image2.jpg, /images/Events/2024-25/E2/image3.jpg</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E3/image1.jpg, /images/Events/2024-25/E3/image2.jpg, /images/Events/2024-25/E3/image3.jpg, /images/Events/2024-25/E3/image4.jpg</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E4/image1.jpg, /images/Events/2024-25/E4/image2.jpg, /images/Events/2024-25/E4/image3.jpg, /images/Events/2024-25/E4/image4.jpg</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E5/image1.jpg, /images/Events/2024-25/E5/image2.JPG, /images/Events/2024-25/E5/image3.JPG, /images/Events/2024-25/E5/image4.jpg</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E7/image1.jpg, /images/Events/2024-25/E7/image2.PNG</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E8/image1.jpg, /images/Events/2024-25/E8/image2.jpg, /images/Events/2024-25/E8/image3.jpeg, /images/Events/2024-25/E8/image4.jpg, /images/Events/2024-25/E8/image5.JPG</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E11/img1.JPG, /images/Events/2024-25/E11/img2.JPG, /images/Events/2024-25/E11/img3.JPG, /images/Events/2024-25/E11/img4.JPG,/images/Events/2024-25/E11/img5.JPG</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E9/image1.jpg, /images/Events/2024-25/E9/image2.jpg, /images/Events/2024-25/E9/image3.jpg, /images/Events/2024-25/E9/image4.jpg</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E10/1.jpg, /images/Events/2024-25/E10/2.JPG, /images/Events/2024-25/E10/3.JPG, /images/Events/2024-25/E10/4.jpg,/images/Events/2024-25/E10/5.JPG</t>
-  </si>
-  <si>
-    <t>/images/Events/2024-25/E6/image1.png, /images/Events/2024-25/E6/image2.png, /images/Events/2024-25/E6/image3.png, /images/Events/2024-25/E6/image4.png</t>
   </si>
   <si>
     <t>In September 2024, Vishwa Netrutvam welcomed the incoming batch to VIT Pune at the First Year Induction program held in Sharad Arena. Online induction sessions were conducted in multiple slots, familiarizing students with our initiatives. The event marked the beginning of an exciting journey for the new batch with Team Vishwa Netrutvam!</t>
@@ -318,6 +282,42 @@
   </si>
   <si>
     <t>Six Sigma Workshop by Mr. Subhash Aaghashe</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E2/image1.webp, /images/Events/2024-25/E2/image2.webp, /images/Events/2024-25/E2/image3.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E3/image1.webp, /images/Events/2024-25/E3/image2.webp, /images/Events/2024-25/E3/image3.webp, /images/Events/2024-25/E3/image4.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E4/image1.webp, /images/Events/2024-25/E4/image2.webp, /images/Events/2024-25/E4/image3.webp, /images/Events/2024-25/E4/image4.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E5/image1.webp, /images/Events/2024-25/E5/image2.webp, /images/Events/2024-25/E5/image3.webp, /images/Events/2024-25/E5/image4.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E9/image1.webp, /images/Events/2024-25/E9/image2.webp, /images/Events/2024-25/E9/image3.webp, /images/Events/2024-25/E9/image4.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E10/1.webp, /images/Events/2024-25/E10/2.webp, /images/Events/2024-25/E10/3.webp, /images/Events/2024-25/E10/4.webp,/images/Events/2024-25/E10/5.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E11/img1.webp, /images/Events/2024-25/E11/img2.webp, /images/Events/2024-25/E11/img3.webp, /images/Events/2024-25/E11/img4.webp,/images/Events/2024-25/E11/img5.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E1/image1.webp, /images/Events/2024-25/E1/image2.webp, /images/Events/2024-25/E1/image3.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E7/image1.webp, /images/Events/2024-25/E7/image2.webp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YdWD8Q_O_Ml_2X7vdiIBvUwebpUQzF1HI/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E6/image1.webp, /images/Events/2024-25/E6/image2.webp, /images/Events/2024-25/E6/image3.webp, /images/Events/2024-25/E6/image4.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E8/image1.webp, /images/Events/2024-25/E8/image2.webp, /images/Events/2024-25/E8/image3.webp, /images/Events/2024-25/E8/image4.webp, /images/Events/2024-25/E8/image5.webp</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4">
         <v>44618</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B5" s="6">
         <v>44625</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4">
         <v>44646</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4">
         <v>44688</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4">
         <v>44819</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5">
         <v>45008</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4">
         <v>45037</v>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201B4819-9FEA-4AA1-A31F-6B3F9660C60D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -957,7 +957,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6">
         <v>45200</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="3" spans="1:4" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7">
         <v>45303</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4">
         <v>45336</v>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42FBBC-526B-47C1-AEBC-8D264F65DB64}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,13 +1055,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1073,13 +1073,13 @@
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -1091,13 +1091,13 @@
         <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1109,13 +1109,13 @@
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -1127,47 +1127,47 @@
         <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6">
         <v>45560</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -1176,16 +1176,16 @@
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1194,16 +1194,16 @@
         <v>45575</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -1212,16 +1212,16 @@
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1230,10 +1230,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1285,8 +1285,9 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{EA96B73E-A63A-4663-8EA0-EF1D1C0FFB82}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{1DC8C946-6743-4347-A456-7265E8911A71}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{D21018FF-1549-4F52-8372-81E669F741D2}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{34CEDF06-3CE7-4D94-AAC0-912C3FB437D0}"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://drive.google.com/file/d/1YdWD8Q_O_Ml_2X7vdiIBvUPnGUQzF1HI/view?usp=drive_link" xr:uid="{34CEDF06-3CE7-4D94-AAC0-912C3FB437D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/react-vn-website/public/data/events.xlsx
+++ b/react-vn-website/public/data/events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshi\Desktop\Vishwa Netrutvam\react-vn-website\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F0835A-D665-48C6-B035-6809D4F6CF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC2E2B5-E8AE-465F-A5CC-DC4894AB1E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="612" windowWidth="10140" windowHeight="10572" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-22" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
   <si>
     <t>link</t>
   </si>
@@ -318,6 +318,84 @@
   </si>
   <si>
     <t>/images/Events/2024-25/E8/image1.webp, /images/Events/2024-25/E8/image2.webp, /images/Events/2024-25/E8/image3.webp, /images/Events/2024-25/E8/image4.webp, /images/Events/2024-25/E8/image5.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineer’s Blueprint | Episode 1 | Insights with Mr. Rohit Gavali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert Lecture Series with Regal Rexnord Corporation on 'Types of Bolts and Design Consideration' by Mr. Prashant Omble </t>
+  </si>
+  <si>
+    <t>Expert Lecture Series with Regal Rexnord Corporation on 'Practical Applications of Fatigue' by Mr. Kiran Gandole</t>
+  </si>
+  <si>
+    <t>Seminar on ‘Research Internships &amp; Study Opportunities with Rowan University’ by Dr. Behrad Koohbor and Dr. Aditya Lele</t>
+  </si>
+  <si>
+    <t>Expert Lecture on 'Design for Reliability and Maintainability' by Prof. Dr. B. Rajiv</t>
+  </si>
+  <si>
+    <t>2-Day Precursor Training Program on Industrial Automation conducted by Mr. Mandar Puranik (Senior Manager (Training) at SMC Corporation (India) Pvt Ltd)</t>
+  </si>
+  <si>
+    <t>Engineer’s Blueprint | Episode 2 | Insights with Mr. Rohan Kulkarni</t>
+  </si>
+  <si>
+    <t>Expert Lecture Series with Regal Rexnord Corporation on 'Campus to Connect' by Mr. Amol Mahulikar</t>
+  </si>
+  <si>
+    <t>Engineer’s Blueprint | Episode 3 | Insights with Mr. Amol Kawade</t>
+  </si>
+  <si>
+    <t>Engineer’s Blueprint | Episode 4 | Insights with Mr. Tushar Chavan</t>
+  </si>
+  <si>
+    <t>Seminar on 'Weaving Sustainability into Everyday Life' by Ms. Preet Akolkar &amp; Ms. Shraddha Desai</t>
+  </si>
+  <si>
+    <t>3-Day Advance Training Program on Industrial Automation conducted by Mr. Mandar Puranik (Senior Manager (Training) at SMC Corporation (India) Pvt Ltd)</t>
+  </si>
+  <si>
+    <t>Expert Lecture Series with Regal Rexnord Corporation on 'Gearbox Design Basics' by Mr. Sachin Jagadale &amp; Mr. Shivakumar Choughule</t>
+  </si>
+  <si>
+    <t>December 18. 2024</t>
+  </si>
+  <si>
+    <t>January 22. 2025</t>
+  </si>
+  <si>
+    <t>February 5, 2025</t>
+  </si>
+  <si>
+    <t>February 10, 2025</t>
+  </si>
+  <si>
+    <t>February 18, 2025</t>
+  </si>
+  <si>
+    <t>Febuary 20-21, 2025</t>
+  </si>
+  <si>
+    <t>March 8, 2025</t>
+  </si>
+  <si>
+    <t>March 12, 2025</t>
+  </si>
+  <si>
+    <t>March 16, 2025</t>
+  </si>
+  <si>
+    <t>March 20, 2025</t>
+  </si>
+  <si>
+    <t>March 24, 2025</t>
+  </si>
+  <si>
+    <t>March 26-28. 2025</t>
+  </si>
+  <si>
+    <t>April 2, 2025</t>
   </si>
 </sst>
 </file>
@@ -369,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -391,6 +469,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1009,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42FBBC-526B-47C1-AEBC-8D264F65DB64}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,45 +1322,129 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/react-vn-website/public/data/events.xlsx
+++ b/react-vn-website/public/data/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshi\Desktop\Vishwa Netrutvam\react-vn-website\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A376EF1-A6FB-4C72-B339-0F0496BB0CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD923FA-E421-4AE5-8E7A-9B3933C728CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-22" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
   <si>
     <t>link</t>
   </si>
@@ -356,9 +356,6 @@
     <t>February 18, 2025</t>
   </si>
   <si>
-    <t>Febuary 20-21, 2025</t>
-  </si>
-  <si>
     <t>March 12, 2025</t>
   </si>
   <si>
@@ -371,7 +368,88 @@
     <t>January 22, 2025</t>
   </si>
   <si>
-    <t>March 26-28, 2025</t>
+    <t>On 22nd January 2025, VIT Pune and Vishwa Netrutvam Club hosted an expert lecture by Mr. Prashant Omble on "Types of Bolts and Design Considerations."
+The session covered bolt types, selection criteria, and industry standards like ISO and ASTM.
+It effectively connected theoretical knowledge with practical engineering applications.</t>
+  </si>
+  <si>
+    <t>On 5th February 2025, VIT Pune and Vishwa Netrutvam Club hosted an expert lecture on "Practical Applications of Fatigue" by Mr. Kiran Gandole.
+The session covered fatigue mechanisms, design practices, and industry standards like ISO and ASTM.
+It offered real-world insights, bridging the gap between academic learning and industrial applications.</t>
+  </si>
+  <si>
+    <t>On 18th February 2025, Vishwa Netrutvam hosted a seminar on "Design for Reliability and Maintainability" by Prof. (Dr.) B. Rajiv.
+He shared insights on reliability in engineering and its role in DRDO projects.
+The session highlighted sustainable design and real-world applications.</t>
+  </si>
+  <si>
+    <t>On 20th–21st February 2025, VIT Pune and SMC Corporation conducted a 2-day Precursor Training Program led by Mr. Mandar Puranik.
+The session covered industrial automation, pneumatic systems, and hands-on demonstrations.
+Top 20 students were selected for advanced training, enhancing industry-oriented skills.</t>
+  </si>
+  <si>
+    <t>On 12th March 2025, VIT Pune and Vishwa Netrutvam Club hosted a session on "Campus to Corporate" by Mr. Amol Mahulikar from Regal Rexnord Corporation.
+The lecture focused on soft skills, industry expectations, and career growth strategies.
+It offered practical insights into transitioning from academia to the corporate world.</t>
+  </si>
+  <si>
+    <t>On 24th March 2025, Vishwa Netrutvam organized a social event on sustainability featuring Ms. Preet Akolkar and Ms. Shraddha Desai.
+The session promoted eco-friendly lifestyle choices through interactive discussions and activities.
+Students gained practical insights on sustainable living and conscious consumption.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yxe4G4gsnjRNFWtSd_-vhiCVOAf9g9rG/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BvWaVkAJV0jaWpPLkDLCvhg6ZvadAQi9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XP9skEdD-9UuifdUvcbuUBMuCDPWypMd/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yQVoko8Fr4MjOWEkTAFnm9QDeFoD0LXD/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>On 10th Feb 2025, Vishwa Netrutvam hosted a seminar with Rowan University on research and study opportunities in the USA. Dr. Aditya Lele and Dr. Behrad Koohbor shared insights on PhD pathways and advanced research. The session inspired students toward global academic careers.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11FoJiYfigg72YoCW-FKDagFxecs2Xk8o/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HWbZGQ7h9qOpOCYcHfNoCgHr9nz2W_5T/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E13/img1.webp, /images/Events/2024-25/E13/img2.webp, /images/Events/2024-25/E13/img3.webp, /images/Events/2024-25/E13/img4.webp,/images/Events/2024-25/E13/img5.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E20/img1.webp, /images/Events/2024-25/E20/img2.webp, /images/Events/2024-25/E20/img3.webp, /images/Events/2024-25/E20/img4.webp,/images/Events/2024-25/E20/img5.webp,/images/Events/2024-25/E20/img6.webp,/images/Events/2024-25/E20/img7.webp,/images/Events/2024-25/E20/img8.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E19/img1.webp, /images/Events/2024-25/E19/img2.webp, /images/Events/2024-25/E19/img3.webp, /images/Events/2024-25/E19/img4.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E17/img1.webp, /images/Events/2024-25/E17/img2.webp, /images/Events/2024-25/E17/img3.webp, /images/Events/2024-25/E17/img4.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E15/img1.webp, /images/Events/2024-25/E15/img2.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E14/img1.webp, /images/Events/2024-25/E14/img2.webp, /images/Events/2024-25/E14/img3.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E12/img1.webp, /images/Events/2024-25/E12/img2.webp, /images/Events/2024-25/E12/img3.webp, /images/Events/2024-25/E12/img4.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E16/img1.webp, /images/Events/2024-25/E16/img2.webp, /images/Events/2024-25/E16/img3.webp, /images/Events/2024-25/E16/img4.webp,/images/Events/2024-25/E16/img5.webp,/images/Events/2024-25/E16/img6.webp</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E18/img1.webp, /images/Events/2024-25/E18/img2.webp, /images/Events/2024-25/E18/img3.webp, /images/Events/2024-25/E18/img4.webp,/images/Events/2024-25/E18/img5.webp,/images/Events/2024-25/E18/img6.webp</t>
+  </si>
+  <si>
+    <t>March 26, 2025</t>
+  </si>
+  <si>
+    <t>February 20, 2025</t>
   </si>
 </sst>
 </file>
@@ -410,7 +488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -418,12 +496,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -443,11 +536,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1068,14 +1173,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42FBBC-526B-47C1-AEBC-8D264F65DB64}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="3" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
   </cols>
@@ -1087,7 +1193,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1105,7 +1211,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1123,7 +1229,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1141,7 +1247,7 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1159,7 +1265,7 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1177,7 +1283,7 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1195,7 +1301,7 @@
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="13">
         <v>45560</v>
       </c>
       <c r="D7" s="2"/>
@@ -1211,7 +1317,7 @@
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1229,7 +1335,7 @@
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1247,7 +1353,7 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="14">
         <v>45575</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1265,7 +1371,7 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1276,14 +1382,14 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1294,95 +1400,148 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>102</v>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>103</v>
+      <c r="C21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1393,8 +1552,14 @@
     <hyperlink ref="D5" r:id="rId4" xr:uid="{1DC8C946-6743-4347-A456-7265E8911A71}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{D21018FF-1549-4F52-8372-81E669F741D2}"/>
     <hyperlink ref="D9" r:id="rId6" display="https://drive.google.com/file/d/1YdWD8Q_O_Ml_2X7vdiIBvUPnGUQzF1HI/view?usp=drive_link" xr:uid="{34CEDF06-3CE7-4D94-AAC0-912C3FB437D0}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{A642AF99-ED7D-44ED-B3F0-F78A5A26DE55}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{D27F8DBD-0215-4DB1-91A8-714E110FCEE7}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{2B7D800E-3C64-4833-8118-DAEC9DA3FD95}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{1C598F92-3D93-4424-B0E8-E3743A33BBD5}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{3347A194-6B4F-4897-BF7F-7CF328DA3649}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{B748EAFF-5561-4B32-B44B-BB8B68A1B598}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/react-vn-website/public/data/events.xlsx
+++ b/react-vn-website/public/data/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshi\Desktop\Vishwa Netrutvam\react-vn-website\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD923FA-E421-4AE5-8E7A-9B3933C728CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DA09EB-ADD9-4F8E-849B-28907D6B0870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
+    <workbookView xWindow="6972" yWindow="936" windowWidth="14532" windowHeight="12240" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-22" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
   <si>
     <t>link</t>
   </si>
@@ -450,6 +450,36 @@
   </si>
   <si>
     <t>February 20, 2025</t>
+  </si>
+  <si>
+    <t>Expert Lecture Series with Regal Rexnord Corporation on 'System Design (Conveying)' by Mr. Swapnil Raut &amp; Mr. Chaitanya Raut</t>
+  </si>
+  <si>
+    <t>On 2nd April 2025, we hosted an Expert Lecture Series on 'Gearbox Design Basics' with industry experts Mr. Sachin Jagadale and Mr. Shivakumar Choughule from Regal Rexnord Corporation. The session covered gearbox mechanisms, design parameters, and industry applications, providing students with practical insights into mechanical design challenges and solutions.</t>
+  </si>
+  <si>
+    <t>On 7th April 2025, we hosted an Expert Lecture Series on 'System Design (Conveying)' with industry experts Mr. Swapnil Raut and Mr. Chaitanya Kulkarni from Regal Rexnord Corporation. The session focused on exploring the intricacies of conveyor system design, key components, and real-world applications to equip students with hands-on knowledge of material-handling systems.</t>
+  </si>
+  <si>
+    <t>During 27th March - 29th March, the Department of Mechanical Engineering, in collaboration with SMC Corporation, conducted a 3-Day Advanced Training on industrial automation for the top 20 students. The program featured hands-on sessions on electro-pneumatics, safety circuits, and real-time system simulations.</t>
+  </si>
+  <si>
+    <t>April 7, 2025</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ii5mLUhPS3v8IbOQ2u1cXFpSmAfDeNbX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_23XgdCq6CTiPBOmlTy2BCAefmx1anQv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xZAM7QB48-8gwy-jv1mGOWwmUj3ZOW-u/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hJ2a5kc1opAXYutGxrPj-iRa5qkW3DhU/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E21/img1.webp,/images/Events/2024-25/E21/img2.webp, /images/Events/2024-25/E21/img3.webp</t>
   </si>
 </sst>
 </file>
@@ -516,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -554,6 +584,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1171,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42FBBC-526B-47C1-AEBC-8D264F65DB64}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1517,31 +1548,62 @@
       <c r="C19" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="B20" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="C20" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="D20" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="B21" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="C21" s="12" t="s">
         <v>102</v>
       </c>
+      <c r="D21" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1558,8 +1620,12 @@
     <hyperlink ref="D16" r:id="rId10" xr:uid="{1C598F92-3D93-4424-B0E8-E3743A33BBD5}"/>
     <hyperlink ref="D17" r:id="rId11" xr:uid="{3347A194-6B4F-4897-BF7F-7CF328DA3649}"/>
     <hyperlink ref="D18" r:id="rId12" xr:uid="{B748EAFF-5561-4B32-B44B-BB8B68A1B598}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{6B5280A9-D6CC-4E21-8794-AF711C5510DC}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{CAAC99B1-CB6E-429C-A20C-A7C12C258A71}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{2E402B33-27B0-431D-B6AA-AAAD83799686}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{6D5CAA12-324B-4329-AB7A-679B9B900D75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/react-vn-website/public/data/events.xlsx
+++ b/react-vn-website/public/data/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshi\Desktop\Vishwa Netrutvam\react-vn-website\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DA09EB-ADD9-4F8E-849B-28907D6B0870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75975C3-F384-40B5-87FA-2F050122F359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6972" yWindow="936" windowWidth="14532" windowHeight="12240" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
+    <workbookView xWindow="6972" yWindow="0" windowWidth="14532" windowHeight="12240" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-22" sheetId="4" r:id="rId1"/>
@@ -479,7 +479,7 @@
     <t>https://drive.google.com/file/d/1hJ2a5kc1opAXYutGxrPj-iRa5qkW3DhU/view?usp=drive_link</t>
   </si>
   <si>
-    <t>/images/Events/2024-25/E21/img1.webp,/images/Events/2024-25/E21/img2.webp, /images/Events/2024-25/E21/img3.webp</t>
+    <t>/images/Events/2024-25/E21/img1.webp,/images/Events/2024-25/E21/img2.webp, /images/Events/2024-25/E21/img3.webp,/images/Events/2024-25/E21/img4.webp,/images/Events/2024-25/E21/img5.webp</t>
   </si>
 </sst>
 </file>

--- a/react-vn-website/public/data/events.xlsx
+++ b/react-vn-website/public/data/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshi\Desktop\Vishwa Netrutvam\react-vn-website\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75975C3-F384-40B5-87FA-2F050122F359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7F2651-4969-45E1-9F2D-F922BED4A2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6972" yWindow="0" windowWidth="14532" windowHeight="12240" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{0E7DEA41-EDEA-4EC2-A269-A03937E96D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-22" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="143">
   <si>
     <t>link</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1VaDpKWTx6nbMmy-PgdW-A0gXv_S5zx_e/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ox-gYnuOJNqjNCDImVbe8HOuJLVq9tW5/view?usp=drive_link</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1wo8kvsMQUm5Jx1HDTcEvBXRO1GJv9ser/view?usp=drive_link</t>
@@ -446,15 +443,9 @@
     <t>/images/Events/2024-25/E18/img1.webp, /images/Events/2024-25/E18/img2.webp, /images/Events/2024-25/E18/img3.webp, /images/Events/2024-25/E18/img4.webp,/images/Events/2024-25/E18/img5.webp,/images/Events/2024-25/E18/img6.webp</t>
   </si>
   <si>
-    <t>March 26, 2025</t>
-  </si>
-  <si>
     <t>February 20, 2025</t>
   </si>
   <si>
-    <t>Expert Lecture Series with Regal Rexnord Corporation on 'System Design (Conveying)' by Mr. Swapnil Raut &amp; Mr. Chaitanya Raut</t>
-  </si>
-  <si>
     <t>On 2nd April 2025, we hosted an Expert Lecture Series on 'Gearbox Design Basics' with industry experts Mr. Sachin Jagadale and Mr. Shivakumar Choughule from Regal Rexnord Corporation. The session covered gearbox mechanisms, design parameters, and industry applications, providing students with practical insights into mechanical design challenges and solutions.</t>
   </si>
   <si>
@@ -480,6 +471,30 @@
   </si>
   <si>
     <t>/images/Events/2024-25/E21/img1.webp,/images/Events/2024-25/E21/img2.webp, /images/Events/2024-25/E21/img3.webp,/images/Events/2024-25/E21/img4.webp,/images/Events/2024-25/E21/img5.webp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pzRmzeElL3uQVhkLbBq4WFClxAibKjAl/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>March 27, 2025</t>
+  </si>
+  <si>
+    <t>April 9, 2025</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Qqo_RpDIIN3bhNVOkHrpGebD-TUrNLxa?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Expert Lecture on 'A Complete Guide To Build Your Startups' by Mr. Akash Deshpande, Co-Founder &amp; CTO, Gaana AI</t>
+  </si>
+  <si>
+    <t>On 10th April 2025, Vishwa Netrutvam &amp; Office of Student Counselling &amp; Career Guidance jointly hosted an expert lecture on "A Complete Guide To Build Your Startups" by Mr. Akash Deshpande, Co-Founder &amp; CTO, Gaana AI. The session provided a comprehensive guide to building successful startups, covering key aspects and strategies for entrepreneurs.</t>
+  </si>
+  <si>
+    <t>/images/Events/2024-25/E22/img1.webp,/images/Events/2024-25/E22/img2.webp, /images/Events/2024-25/E22/img3.webp,/images/Events/2024-25/E22/img4.webp</t>
+  </si>
+  <si>
+    <t>Expert Lecture Series with Regal Rexnord Corporation on 'System Design (Conveying)' by Mr. Swapnil Raut &amp; Mr. Chaitanya Kulkarni</t>
   </si>
 </sst>
 </file>
@@ -935,7 +950,7 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -943,7 +958,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4">
         <v>44618</v>
@@ -951,7 +966,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6">
         <v>44625</v>
@@ -959,7 +974,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -967,7 +982,7 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4">
         <v>44646</v>
@@ -975,7 +990,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4">
         <v>44688</v>
@@ -1019,7 +1034,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4">
         <v>44819</v>
@@ -1063,7 +1078,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5">
         <v>45008</v>
@@ -1085,7 +1100,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4">
         <v>45037</v>
@@ -1150,7 +1165,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="6">
         <v>45200</v>
@@ -1158,7 +1173,7 @@
     </row>
     <row r="3" spans="1:4" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="7">
         <v>45303</v>
@@ -1170,7 +1185,7 @@
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4">
         <v>45336</v>
@@ -1202,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42FBBC-526B-47C1-AEBC-8D264F65DB64}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,13 +1264,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1267,13 +1282,13 @@
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -1285,13 +1300,13 @@
         <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1300,16 +1315,16 @@
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -1318,50 +1333,50 @@
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="13">
         <v>45560</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -1370,16 +1385,16 @@
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1388,16 +1403,16 @@
         <v>45575</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -1406,16 +1421,16 @@
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1424,186 +1439,203 @@
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>137</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1624,8 +1656,9 @@
     <hyperlink ref="D20" r:id="rId14" xr:uid="{CAAC99B1-CB6E-429C-A20C-A7C12C258A71}"/>
     <hyperlink ref="D21" r:id="rId15" xr:uid="{2E402B33-27B0-431D-B6AA-AAAD83799686}"/>
     <hyperlink ref="D22" r:id="rId16" xr:uid="{6D5CAA12-324B-4329-AB7A-679B9B900D75}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{4CB93F28-C571-46D9-9F98-66F941ED8FA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>